--- a/prix/diessner.xlsx
+++ b/prix/diessner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD61069-094B-4A58-B002-9BC96A29D69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCFDD31-3228-40E3-B6A4-F4F8C44F070B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>path</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Ajouter 11,25</t>
+  </si>
+  <si>
+    <t>diessner/perfect-fine.png</t>
+  </si>
+  <si>
+    <t>Ajouter 4,50</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,7 +1021,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="3">
-        <v>20.150000000000002</v>
+        <v>21.05</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>30</v>
@@ -1031,9 +1039,14 @@
       <c r="F18" s="5">
         <v>7</v>
       </c>
+      <c r="G18" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1041,7 +1054,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="3">
-        <v>35.950000000000003</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>31</v>
@@ -1049,9 +1062,14 @@
       <c r="F19" s="5">
         <v>14</v>
       </c>
+      <c r="G19" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>48</v>
       </c>
@@ -1059,13 +1077,16 @@
         <v>13</v>
       </c>
       <c r="D20" s="3">
-        <v>63.6</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="5">
         <v>9</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">

--- a/prix/diessner.xlsx
+++ b/prix/diessner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\peinture\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCC4917-AFE9-4FCC-92A9-36AE5E345CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A587C453-ADB6-4F1A-AC27-0509C03B2501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>path</t>
   </si>
@@ -74,9 +74,6 @@
     <t>71140253</t>
   </si>
   <si>
-    <t>12,5l</t>
-  </si>
-  <si>
     <t>5l</t>
   </si>
   <si>
@@ -246,6 +243,15 @@
   </si>
   <si>
     <t>1l + Teinte</t>
+  </si>
+  <si>
+    <t>5l Blanc</t>
+  </si>
+  <si>
+    <t>12,5l Blanc</t>
+  </si>
+  <si>
+    <t>1l Blanc</t>
   </si>
 </sst>
 </file>
@@ -680,14 +686,14 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -717,19 +723,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3">
         <v>48.45</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
@@ -737,19 +743,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D3" s="3">
         <v>110.84</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
@@ -757,19 +763,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D4" s="3">
         <v>151.19</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5">
         <v>4</v>
@@ -777,19 +783,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3">
         <v>64.489999999999995</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="5">
         <v>25</v>
@@ -797,19 +803,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D6" s="3">
         <v>115.95</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5">
         <v>-1</v>
@@ -817,19 +823,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3">
         <v>50.51</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="5">
         <v>24</v>
@@ -837,19 +843,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D8" s="3">
         <v>14.97</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5">
         <v>29</v>
@@ -857,40 +863,40 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3">
         <v>15.87</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="5">
         <v>4</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3">
         <v>14.97</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="5">
         <v>-1</v>
@@ -899,16 +905,16 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3">
         <v>14.01</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5">
         <v>9</v>
@@ -916,40 +922,40 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3">
         <v>32.520000000000003</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="5">
         <v>8</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3">
         <v>30.27</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5">
         <v>8</v>
@@ -958,16 +964,16 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3">
         <v>30.27</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="5">
         <v>16</v>
@@ -975,40 +981,40 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="3">
         <v>61.21</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5">
         <v>12</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3">
         <v>56.71</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="5">
         <v>4</v>
@@ -1017,16 +1023,16 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
         <v>56.71</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="5">
         <v>14</v>
@@ -1034,82 +1040,82 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D18" s="3">
         <v>21.05</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="5">
         <v>7</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3">
         <v>38.200000000000003</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="5">
         <v>14</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3">
         <v>68.099999999999994</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="5">
         <v>9</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D21" s="12">
         <v>224.04</v>
@@ -1123,13 +1129,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="12">
         <v>242.21</v>
@@ -1141,18 +1147,18 @@
         <v>5</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="D23" s="12">
         <v>95.4</v>
@@ -1166,13 +1172,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="12">
         <v>96.99</v>
@@ -1184,7 +1190,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
